--- a/Documentacao/Sprint2/sprint backlog/Sprint Backlog.xlsx
+++ b/Documentacao/Sprint2/sprint backlog/Sprint Backlog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultim\Desktop\BandTec\PI\SM ULTIMATE\git\OrionConecta\Documentacao\Sprint2\sprint backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\OneDrive\Documentos\Bandtec\School\3º Semestre\Pesquisa e Inovação\Zenite\Documentacao\Sprint2\sprint backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_73BF74716B7BED2B9B2FF053838CF0CF915CAE23" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{358A447F-EFCC-42B4-8B6E-F4870567385A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9555"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint 1 (09-03)" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint 2  (11-04)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2  (11-05)" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 3 (++-06)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -498,7 +499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -680,7 +681,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -724,7 +731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -743,8 +756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133726" y="790576"/>
-          <a:ext cx="1885950" cy="613858"/>
+          <a:off x="3116581" y="784861"/>
+          <a:ext cx="1853565" cy="606238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,19 +1090,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -1145,7 +1158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>109</v>
       </c>
@@ -1153,7 +1166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>110</v>
       </c>
@@ -1168,30 +1181,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="5" width="18.8984375" customWidth="1"/>
     <col min="6" max="6" width="87.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1560,7 +1573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1601,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1724,7 +1737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1765,7 +1778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1806,7 +1819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1847,7 +1860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1970,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2012,36 +2025,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M20"/>
+  <autoFilter ref="B1:M20" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="185.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>20</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>21</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -2205,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>23</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>26</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>27</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>28</v>
       </c>
@@ -2451,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>29</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>30</v>
       </c>
@@ -2533,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>31</v>
       </c>
@@ -2574,7 +2587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -2615,7 +2628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>33</v>
       </c>
@@ -2656,7 +2669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -2697,7 +2710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>36</v>
       </c>
@@ -2779,7 +2792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>37</v>
       </c>
@@ -2820,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -2861,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>39</v>
       </c>
@@ -2902,7 +2915,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40</v>
       </c>
@@ -2943,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>41</v>
       </c>
@@ -2984,7 +2997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42</v>
       </c>
@@ -3031,26 +3044,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>149</v>
       </c>
